--- a/Dragon BUURRP!_TC.xlsx
+++ b/Dragon BUURRP!_TC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08869777-A552-4929-81E3-AEBEEB2A19F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972AB29-2C17-483B-BBDA-8400A91204B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22656" yWindow="384" windowWidth="12192" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
@@ -1427,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,14 +1512,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,22 +1527,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,23 +1554,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1885,8 +1876,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L273" sqref="L273"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1901,12 +1892,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
@@ -1920,8 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="10">
-        <f ca="1">TODAY()</f>
-        <v>45519</v>
+        <v>45498</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -1957,7 +1947,7 @@
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -1969,7 +1959,7 @@
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="23" t="s">
         <v>117</v>
       </c>
@@ -1979,7 +1969,7 @@
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="23" t="s">
         <v>105</v>
       </c>
@@ -1989,7 +1979,7 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="23" t="s">
         <v>106</v>
       </c>
@@ -1999,7 +1989,7 @@
       <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="23" t="s">
         <v>107</v>
       </c>
@@ -2009,7 +1999,7 @@
       <c r="B13" s="11">
         <v>6</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="23" t="s">
         <v>116</v>
       </c>
@@ -2019,7 +2009,7 @@
       <c r="B14" s="11">
         <v>7</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="23" t="s">
         <v>108</v>
       </c>
@@ -2029,7 +2019,7 @@
       <c r="B15" s="11">
         <v>8</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="23" t="s">
         <v>109</v>
       </c>
@@ -2039,7 +2029,7 @@
       <c r="B16" s="11">
         <v>9</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="23" t="s">
         <v>110</v>
       </c>
@@ -2049,7 +2039,7 @@
       <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="23" t="s">
         <v>111</v>
       </c>
@@ -2059,7 +2049,7 @@
       <c r="B18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="23" t="s">
         <v>112</v>
       </c>
@@ -2069,7 +2059,7 @@
       <c r="B19" s="11">
         <v>12</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="23" t="s">
         <v>113</v>
       </c>
@@ -2079,7 +2069,7 @@
       <c r="B20" s="11">
         <v>13</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="23" t="s">
         <v>114</v>
       </c>
@@ -2089,7 +2079,7 @@
       <c r="B21" s="11">
         <v>14</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="23" t="s">
         <v>115</v>
       </c>
@@ -2099,7 +2089,7 @@
       <c r="B22" s="11">
         <v>15</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>134</v>
       </c>
       <c r="D22" s="23" t="s">
@@ -2111,7 +2101,7 @@
       <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="23" t="s">
         <v>119</v>
       </c>
@@ -2121,7 +2111,7 @@
       <c r="B24" s="11">
         <v>17</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="23" t="s">
         <v>120</v>
       </c>
@@ -2131,7 +2121,7 @@
       <c r="B25" s="11">
         <v>18</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="23" t="s">
         <v>121</v>
       </c>
@@ -2141,7 +2131,7 @@
       <c r="B26" s="11">
         <v>19</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="23" t="s">
         <v>122</v>
       </c>
@@ -2151,7 +2141,7 @@
       <c r="B27" s="11">
         <v>20</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="23" t="s">
         <v>123</v>
       </c>
@@ -2161,7 +2151,7 @@
       <c r="B28" s="11">
         <v>21</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="23" t="s">
         <v>124</v>
       </c>
@@ -2171,7 +2161,7 @@
       <c r="B29" s="11">
         <v>22</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="23" t="s">
         <v>125</v>
       </c>
@@ -2181,7 +2171,7 @@
       <c r="B30" s="11">
         <v>23</v>
       </c>
-      <c r="C30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="23" t="s">
         <v>126</v>
       </c>
@@ -2191,7 +2181,7 @@
       <c r="B31" s="11">
         <v>24</v>
       </c>
-      <c r="C31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="23" t="s">
         <v>129</v>
       </c>
@@ -2201,7 +2191,7 @@
       <c r="B32" s="11">
         <v>25</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="23" t="s">
         <v>128</v>
       </c>
@@ -2211,7 +2201,7 @@
       <c r="B33" s="11">
         <v>26</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="23" t="s">
         <v>127</v>
       </c>
@@ -2221,7 +2211,7 @@
       <c r="B34" s="11">
         <v>27</v>
       </c>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="23" t="s">
         <v>130</v>
       </c>
@@ -2231,7 +2221,7 @@
       <c r="B35" s="11">
         <v>28</v>
       </c>
-      <c r="C35" s="34"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="23" t="s">
         <v>177</v>
       </c>
@@ -2241,7 +2231,7 @@
       <c r="B36" s="11">
         <v>29</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="23" t="s">
         <v>133</v>
       </c>
@@ -2251,7 +2241,7 @@
       <c r="B37" s="11">
         <v>30</v>
       </c>
-      <c r="C37" s="34"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="23" t="s">
         <v>131</v>
       </c>
@@ -2261,7 +2251,7 @@
       <c r="B38" s="11">
         <v>31</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="23" t="s">
         <v>132</v>
       </c>
@@ -2271,7 +2261,7 @@
       <c r="B39" s="11">
         <v>32</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="23" t="s">
         <v>223</v>
       </c>
@@ -2281,7 +2271,7 @@
       <c r="B40" s="11">
         <v>33</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="23" t="s">
         <v>222</v>
       </c>
@@ -2291,7 +2281,7 @@
       <c r="B41" s="11">
         <v>34</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="23" t="s">
         <v>221</v>
       </c>
@@ -2301,7 +2291,7 @@
       <c r="B42" s="11">
         <v>35</v>
       </c>
-      <c r="C42" s="35"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="23" t="s">
         <v>220</v>
       </c>
@@ -2311,7 +2301,7 @@
       <c r="B43" s="11">
         <v>36</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="34" t="s">
         <v>153</v>
       </c>
       <c r="D43" s="23" t="s">
@@ -2323,7 +2313,7 @@
       <c r="B44" s="11">
         <v>37</v>
       </c>
-      <c r="C44" s="34"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="23" t="s">
         <v>136</v>
       </c>
@@ -2333,7 +2323,7 @@
       <c r="B45" s="11">
         <v>38</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="23" t="s">
         <v>137</v>
       </c>
@@ -2343,7 +2333,7 @@
       <c r="B46" s="11">
         <v>39</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="23" t="s">
         <v>138</v>
       </c>
@@ -2353,7 +2343,7 @@
       <c r="B47" s="11">
         <v>40</v>
       </c>
-      <c r="C47" s="34"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="23" t="s">
         <v>139</v>
       </c>
@@ -2363,7 +2353,7 @@
       <c r="B48" s="11">
         <v>41</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="23" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +2363,7 @@
       <c r="B49" s="11">
         <v>42</v>
       </c>
-      <c r="C49" s="34"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="23" t="s">
         <v>141</v>
       </c>
@@ -2383,7 +2373,7 @@
       <c r="B50" s="11">
         <v>43</v>
       </c>
-      <c r="C50" s="34"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="23" t="s">
         <v>142</v>
       </c>
@@ -2393,7 +2383,7 @@
       <c r="B51" s="11">
         <v>44</v>
       </c>
-      <c r="C51" s="34"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="23" t="s">
         <v>143</v>
       </c>
@@ -2403,7 +2393,7 @@
       <c r="B52" s="11">
         <v>45</v>
       </c>
-      <c r="C52" s="34"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="23" t="s">
         <v>144</v>
       </c>
@@ -2413,7 +2403,7 @@
       <c r="B53" s="11">
         <v>46</v>
       </c>
-      <c r="C53" s="34"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="23" t="s">
         <v>145</v>
       </c>
@@ -2423,7 +2413,7 @@
       <c r="B54" s="11">
         <v>47</v>
       </c>
-      <c r="C54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="23" t="s">
         <v>146</v>
       </c>
@@ -2433,7 +2423,7 @@
       <c r="B55" s="11">
         <v>48</v>
       </c>
-      <c r="C55" s="34"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="23" t="s">
         <v>147</v>
       </c>
@@ -2443,7 +2433,7 @@
       <c r="B56" s="11">
         <v>49</v>
       </c>
-      <c r="C56" s="34"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="23" t="s">
         <v>149</v>
       </c>
@@ -2453,7 +2443,7 @@
       <c r="B57" s="11">
         <v>50</v>
       </c>
-      <c r="C57" s="34"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="23" t="s">
         <v>148</v>
       </c>
@@ -2463,7 +2453,7 @@
       <c r="B58" s="11">
         <v>51</v>
       </c>
-      <c r="C58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="23" t="s">
         <v>150</v>
       </c>
@@ -2473,7 +2463,7 @@
       <c r="B59" s="11">
         <v>52</v>
       </c>
-      <c r="C59" s="34"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="23" t="s">
         <v>151</v>
       </c>
@@ -2483,7 +2473,7 @@
       <c r="B60" s="11">
         <v>53</v>
       </c>
-      <c r="C60" s="34"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="23" t="s">
         <v>152</v>
       </c>
@@ -2493,7 +2483,7 @@
       <c r="B61" s="11">
         <v>54</v>
       </c>
-      <c r="C61" s="34"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="23" t="s">
         <v>176</v>
       </c>
@@ -2503,7 +2493,7 @@
       <c r="B62" s="11">
         <v>55</v>
       </c>
-      <c r="C62" s="34"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="23" t="s">
         <v>175</v>
       </c>
@@ -2513,7 +2503,7 @@
       <c r="B63" s="11">
         <v>56</v>
       </c>
-      <c r="C63" s="34"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="23" t="s">
         <v>219</v>
       </c>
@@ -2523,7 +2513,7 @@
       <c r="B64" s="11">
         <v>57</v>
       </c>
-      <c r="C64" s="34"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="23" t="s">
         <v>218</v>
       </c>
@@ -2533,7 +2523,7 @@
       <c r="B65" s="11">
         <v>58</v>
       </c>
-      <c r="C65" s="34"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="23" t="s">
         <v>217</v>
       </c>
@@ -2543,7 +2533,7 @@
       <c r="B66" s="11">
         <v>59</v>
       </c>
-      <c r="C66" s="34"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="23" t="s">
         <v>216</v>
       </c>
@@ -2553,7 +2543,7 @@
       <c r="B67" s="11">
         <v>60</v>
       </c>
-      <c r="C67" s="34"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="23" t="s">
         <v>215</v>
       </c>
@@ -2563,7 +2553,7 @@
       <c r="B68" s="11">
         <v>61</v>
       </c>
-      <c r="C68" s="34"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="23" t="s">
         <v>214</v>
       </c>
@@ -2573,7 +2563,7 @@
       <c r="B69" s="11">
         <v>62</v>
       </c>
-      <c r="C69" s="35"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="23" t="s">
         <v>213</v>
       </c>
@@ -2583,7 +2573,7 @@
       <c r="B70" s="11">
         <v>63</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="34" t="s">
         <v>174</v>
       </c>
       <c r="D70" s="23" t="s">
@@ -2595,7 +2585,7 @@
       <c r="B71" s="11">
         <v>64</v>
       </c>
-      <c r="C71" s="34"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="23" t="s">
         <v>155</v>
       </c>
@@ -2605,7 +2595,7 @@
       <c r="B72" s="11">
         <v>65</v>
       </c>
-      <c r="C72" s="34"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="23" t="s">
         <v>182</v>
       </c>
@@ -2615,7 +2605,7 @@
       <c r="B73" s="11">
         <v>66</v>
       </c>
-      <c r="C73" s="34"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="23" t="s">
         <v>156</v>
       </c>
@@ -2625,7 +2615,7 @@
       <c r="B74" s="11">
         <v>67</v>
       </c>
-      <c r="C74" s="34"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="23" t="s">
         <v>157</v>
       </c>
@@ -2635,7 +2625,7 @@
       <c r="B75" s="11">
         <v>68</v>
       </c>
-      <c r="C75" s="34"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="23" t="s">
         <v>158</v>
       </c>
@@ -2645,7 +2635,7 @@
       <c r="B76" s="11">
         <v>69</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="23" t="s">
         <v>159</v>
       </c>
@@ -2655,7 +2645,7 @@
       <c r="B77" s="11">
         <v>70</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="23" t="s">
         <v>160</v>
       </c>
@@ -2665,7 +2655,7 @@
       <c r="B78" s="11">
         <v>71</v>
       </c>
-      <c r="C78" s="34"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="23" t="s">
         <v>161</v>
       </c>
@@ -2675,7 +2665,7 @@
       <c r="B79" s="11">
         <v>72</v>
       </c>
-      <c r="C79" s="34"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="23" t="s">
         <v>162</v>
       </c>
@@ -2685,7 +2675,7 @@
       <c r="B80" s="11">
         <v>73</v>
       </c>
-      <c r="C80" s="34"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="23" t="s">
         <v>163</v>
       </c>
@@ -2695,7 +2685,7 @@
       <c r="B81" s="11">
         <v>74</v>
       </c>
-      <c r="C81" s="34"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="23" t="s">
         <v>164</v>
       </c>
@@ -2705,7 +2695,7 @@
       <c r="B82" s="11">
         <v>75</v>
       </c>
-      <c r="C82" s="34"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="23" t="s">
         <v>165</v>
       </c>
@@ -2715,7 +2705,7 @@
       <c r="B83" s="11">
         <v>76</v>
       </c>
-      <c r="C83" s="34"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="23" t="s">
         <v>166</v>
       </c>
@@ -2725,7 +2715,7 @@
       <c r="B84" s="11">
         <v>77</v>
       </c>
-      <c r="C84" s="34"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="23" t="s">
         <v>167</v>
       </c>
@@ -2735,7 +2725,7 @@
       <c r="B85" s="11">
         <v>78</v>
       </c>
-      <c r="C85" s="34"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="23" t="s">
         <v>168</v>
       </c>
@@ -2745,7 +2735,7 @@
       <c r="B86" s="11">
         <v>79</v>
       </c>
-      <c r="C86" s="34"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="23" t="s">
         <v>169</v>
       </c>
@@ -2755,7 +2745,7 @@
       <c r="B87" s="11">
         <v>80</v>
       </c>
-      <c r="C87" s="34"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="23" t="s">
         <v>170</v>
       </c>
@@ -2765,7 +2755,7 @@
       <c r="B88" s="11">
         <v>81</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="23" t="s">
         <v>171</v>
       </c>
@@ -2775,7 +2765,7 @@
       <c r="B89" s="11">
         <v>82</v>
       </c>
-      <c r="C89" s="34"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="23" t="s">
         <v>172</v>
       </c>
@@ -2785,7 +2775,7 @@
       <c r="B90" s="11">
         <v>83</v>
       </c>
-      <c r="C90" s="35"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="23" t="s">
         <v>173</v>
       </c>
@@ -2795,7 +2785,7 @@
       <c r="B91" s="11">
         <v>84</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C91" s="34" t="s">
         <v>178</v>
       </c>
       <c r="D91" s="23" t="s">
@@ -2807,7 +2797,7 @@
       <c r="B92" s="11">
         <v>85</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="23" t="s">
         <v>180</v>
       </c>
@@ -2817,7 +2807,7 @@
       <c r="B93" s="11">
         <v>86</v>
       </c>
-      <c r="C93" s="34"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="23" t="s">
         <v>181</v>
       </c>
@@ -2827,7 +2817,7 @@
       <c r="B94" s="11">
         <v>87</v>
       </c>
-      <c r="C94" s="34"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="23" t="s">
         <v>183</v>
       </c>
@@ -2837,7 +2827,7 @@
       <c r="B95" s="11">
         <v>88</v>
       </c>
-      <c r="C95" s="34"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="23" t="s">
         <v>184</v>
       </c>
@@ -2847,7 +2837,7 @@
       <c r="B96" s="11">
         <v>89</v>
       </c>
-      <c r="C96" s="34"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="23" t="s">
         <v>185</v>
       </c>
@@ -2857,7 +2847,7 @@
       <c r="B97" s="11">
         <v>90</v>
       </c>
-      <c r="C97" s="34"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="23" t="s">
         <v>186</v>
       </c>
@@ -2867,7 +2857,7 @@
       <c r="B98" s="11">
         <v>91</v>
       </c>
-      <c r="C98" s="34"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="23" t="s">
         <v>187</v>
       </c>
@@ -2877,7 +2867,7 @@
       <c r="B99" s="11">
         <v>92</v>
       </c>
-      <c r="C99" s="34"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="23" t="s">
         <v>188</v>
       </c>
@@ -2887,7 +2877,7 @@
       <c r="B100" s="11">
         <v>93</v>
       </c>
-      <c r="C100" s="34"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="23" t="s">
         <v>189</v>
       </c>
@@ -2897,7 +2887,7 @@
       <c r="B101" s="11">
         <v>94</v>
       </c>
-      <c r="C101" s="34"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="23" t="s">
         <v>190</v>
       </c>
@@ -2907,7 +2897,7 @@
       <c r="B102" s="11">
         <v>95</v>
       </c>
-      <c r="C102" s="34"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="23" t="s">
         <v>191</v>
       </c>
@@ -2917,7 +2907,7 @@
       <c r="B103" s="11">
         <v>96</v>
       </c>
-      <c r="C103" s="34"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="23" t="s">
         <v>192</v>
       </c>
@@ -2927,7 +2917,7 @@
       <c r="B104" s="11">
         <v>97</v>
       </c>
-      <c r="C104" s="34"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="23" t="s">
         <v>211</v>
       </c>
@@ -2937,7 +2927,7 @@
       <c r="B105" s="11">
         <v>98</v>
       </c>
-      <c r="C105" s="34"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="23" t="s">
         <v>212</v>
       </c>
@@ -2947,7 +2937,7 @@
       <c r="B106" s="11">
         <v>99</v>
       </c>
-      <c r="C106" s="34"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="23" t="s">
         <v>193</v>
       </c>
@@ -2957,7 +2947,7 @@
       <c r="B107" s="11">
         <v>100</v>
       </c>
-      <c r="C107" s="35"/>
+      <c r="C107" s="38"/>
       <c r="D107" s="23" t="s">
         <v>194</v>
       </c>
@@ -2967,7 +2957,7 @@
       <c r="B108" s="11">
         <v>101</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="19" t="s">
@@ -2979,7 +2969,7 @@
       <c r="B109" s="11">
         <v>102</v>
       </c>
-      <c r="C109" s="30"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="19" t="s">
         <v>53</v>
       </c>
@@ -2989,7 +2979,7 @@
       <c r="B110" s="11">
         <v>103</v>
       </c>
-      <c r="C110" s="30"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="19" t="s">
         <v>54</v>
       </c>
@@ -2999,7 +2989,7 @@
       <c r="B111" s="11">
         <v>104</v>
       </c>
-      <c r="C111" s="30"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="19" t="s">
         <v>49</v>
       </c>
@@ -3009,7 +2999,7 @@
       <c r="B112" s="11">
         <v>105</v>
       </c>
-      <c r="C112" s="30"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="19" t="s">
         <v>55</v>
       </c>
@@ -3019,7 +3009,7 @@
       <c r="B113" s="11">
         <v>106</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="19" t="s">
@@ -3031,7 +3021,7 @@
       <c r="B114" s="11">
         <v>107</v>
       </c>
-      <c r="C114" s="30"/>
+      <c r="C114" s="42"/>
       <c r="D114" s="19" t="s">
         <v>57</v>
       </c>
@@ -3063,7 +3053,7 @@
       <c r="B117" s="11">
         <v>110</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -3075,7 +3065,7 @@
       <c r="B118" s="11">
         <v>111</v>
       </c>
-      <c r="C118" s="30"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="19" t="s">
         <v>24</v>
       </c>
@@ -3117,7 +3107,7 @@
       <c r="B122" s="11">
         <v>115</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="33"/>
       <c r="D122" s="19" t="s">
         <v>34</v>
       </c>
@@ -3127,7 +3117,7 @@
       <c r="B123" s="11">
         <v>116</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="19" t="s">
@@ -3139,7 +3129,7 @@
       <c r="B124" s="11">
         <v>117</v>
       </c>
-      <c r="C124" s="30"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="19" t="s">
         <v>62</v>
       </c>
@@ -3149,7 +3139,7 @@
       <c r="B125" s="11">
         <v>118</v>
       </c>
-      <c r="C125" s="30"/>
+      <c r="C125" s="42"/>
       <c r="D125" s="19" t="s">
         <v>63</v>
       </c>
@@ -3159,7 +3149,7 @@
       <c r="B126" s="11">
         <v>119</v>
       </c>
-      <c r="C126" s="30"/>
+      <c r="C126" s="42"/>
       <c r="D126" s="19" t="s">
         <v>64</v>
       </c>
@@ -3169,7 +3159,7 @@
       <c r="B127" s="11">
         <v>120</v>
       </c>
-      <c r="C127" s="30"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="19" t="s">
         <v>209</v>
       </c>
@@ -3221,7 +3211,7 @@
       <c r="B132" s="11">
         <v>125</v>
       </c>
-      <c r="C132" s="36"/>
+      <c r="C132" s="33"/>
       <c r="D132" s="19" t="s">
         <v>33</v>
       </c>
@@ -3283,7 +3273,7 @@
       <c r="B138" s="11">
         <v>131</v>
       </c>
-      <c r="C138" s="36"/>
+      <c r="C138" s="33"/>
       <c r="D138" s="19" t="s">
         <v>32</v>
       </c>
@@ -3375,7 +3365,7 @@
       <c r="B147" s="11">
         <v>140</v>
       </c>
-      <c r="C147" s="36"/>
+      <c r="C147" s="33"/>
       <c r="D147" s="19" t="s">
         <v>265</v>
       </c>
@@ -3427,7 +3417,7 @@
       <c r="B152" s="11">
         <v>145</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="42" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="5" t="s">
@@ -3439,7 +3429,7 @@
       <c r="B153" s="11">
         <v>146</v>
       </c>
-      <c r="C153" s="30"/>
+      <c r="C153" s="42"/>
       <c r="D153" s="5" t="s">
         <v>78</v>
       </c>
@@ -3449,7 +3439,7 @@
       <c r="B154" s="11">
         <v>147</v>
       </c>
-      <c r="C154" s="30"/>
+      <c r="C154" s="42"/>
       <c r="D154" s="5" t="s">
         <v>21</v>
       </c>
@@ -3459,7 +3449,7 @@
       <c r="B155" s="11">
         <v>148</v>
       </c>
-      <c r="C155" s="30"/>
+      <c r="C155" s="42"/>
       <c r="D155" s="5" t="s">
         <v>22</v>
       </c>
@@ -3491,7 +3481,7 @@
       <c r="B158" s="11">
         <v>151</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="C158" s="42" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="5" t="s">
@@ -3503,7 +3493,7 @@
       <c r="B159" s="11">
         <v>152</v>
       </c>
-      <c r="C159" s="30"/>
+      <c r="C159" s="42"/>
       <c r="D159" s="5" t="s">
         <v>83</v>
       </c>
@@ -3513,7 +3503,7 @@
       <c r="B160" s="11">
         <v>153</v>
       </c>
-      <c r="C160" s="30"/>
+      <c r="C160" s="42"/>
       <c r="D160" s="5" t="s">
         <v>205</v>
       </c>
@@ -3523,7 +3513,7 @@
       <c r="B161" s="11">
         <v>154</v>
       </c>
-      <c r="C161" s="30"/>
+      <c r="C161" s="42"/>
       <c r="D161" s="5" t="s">
         <v>206</v>
       </c>
@@ -3533,7 +3523,7 @@
       <c r="B162" s="11">
         <v>155</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C162" s="42" t="s">
         <v>28</v>
       </c>
       <c r="D162" s="5" t="s">
@@ -3545,7 +3535,7 @@
       <c r="B163" s="11">
         <v>156</v>
       </c>
-      <c r="C163" s="30"/>
+      <c r="C163" s="42"/>
       <c r="D163" s="5" t="s">
         <v>85</v>
       </c>
@@ -3555,7 +3545,7 @@
       <c r="B164" s="11">
         <v>157</v>
       </c>
-      <c r="C164" s="30"/>
+      <c r="C164" s="42"/>
       <c r="D164" s="5" t="s">
         <v>86</v>
       </c>
@@ -3565,7 +3555,7 @@
       <c r="B165" s="11">
         <v>158</v>
       </c>
-      <c r="C165" s="30"/>
+      <c r="C165" s="42"/>
       <c r="D165" s="5" t="s">
         <v>36</v>
       </c>
@@ -3575,7 +3565,7 @@
       <c r="B166" s="11">
         <v>159</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="C166" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="5" t="s">
@@ -3587,7 +3577,7 @@
       <c r="B167" s="11">
         <v>160</v>
       </c>
-      <c r="C167" s="30"/>
+      <c r="C167" s="42"/>
       <c r="D167" s="5" t="s">
         <v>88</v>
       </c>
@@ -3597,7 +3587,7 @@
       <c r="B168" s="11">
         <v>161</v>
       </c>
-      <c r="C168" s="30"/>
+      <c r="C168" s="42"/>
       <c r="D168" s="5" t="s">
         <v>89</v>
       </c>
@@ -3607,7 +3597,7 @@
       <c r="B169" s="11">
         <v>162</v>
       </c>
-      <c r="C169" s="30"/>
+      <c r="C169" s="42"/>
       <c r="D169" s="5" t="s">
         <v>37</v>
       </c>
@@ -3617,7 +3607,7 @@
       <c r="B170" s="11">
         <v>163</v>
       </c>
-      <c r="C170" s="30" t="s">
+      <c r="C170" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D170" s="5" t="s">
@@ -3629,7 +3619,7 @@
       <c r="B171" s="11">
         <v>164</v>
       </c>
-      <c r="C171" s="30"/>
+      <c r="C171" s="42"/>
       <c r="D171" s="5" t="s">
         <v>91</v>
       </c>
@@ -3691,7 +3681,7 @@
       <c r="B177" s="11">
         <v>170</v>
       </c>
-      <c r="C177" s="36"/>
+      <c r="C177" s="33"/>
       <c r="D177" s="5" t="s">
         <v>39</v>
       </c>
@@ -3815,7 +3805,7 @@
       <c r="B189" s="11">
         <v>182</v>
       </c>
-      <c r="C189" s="36"/>
+      <c r="C189" s="33"/>
       <c r="D189" s="5" t="s">
         <v>44</v>
       </c>
@@ -3887,7 +3877,7 @@
       <c r="B196" s="11">
         <v>189</v>
       </c>
-      <c r="C196" s="36"/>
+      <c r="C196" s="33"/>
       <c r="D196" s="5" t="s">
         <v>280</v>
       </c>
@@ -3897,7 +3887,7 @@
       <c r="B197" s="11">
         <v>190</v>
       </c>
-      <c r="C197" s="33" t="s">
+      <c r="C197" s="34" t="s">
         <v>195</v>
       </c>
       <c r="D197" s="5" t="s">
@@ -3909,7 +3899,7 @@
       <c r="B198" s="11">
         <v>191</v>
       </c>
-      <c r="C198" s="34"/>
+      <c r="C198" s="37"/>
       <c r="D198" s="5" t="s">
         <v>197</v>
       </c>
@@ -3919,7 +3909,7 @@
       <c r="B199" s="11">
         <v>192</v>
       </c>
-      <c r="C199" s="34"/>
+      <c r="C199" s="37"/>
       <c r="D199" s="5" t="s">
         <v>198</v>
       </c>
@@ -3929,7 +3919,7 @@
       <c r="B200" s="11">
         <v>193</v>
       </c>
-      <c r="C200" s="34"/>
+      <c r="C200" s="37"/>
       <c r="D200" s="5" t="s">
         <v>199</v>
       </c>
@@ -3939,7 +3929,7 @@
       <c r="B201" s="11">
         <v>194</v>
       </c>
-      <c r="C201" s="34"/>
+      <c r="C201" s="37"/>
       <c r="D201" s="5" t="s">
         <v>200</v>
       </c>
@@ -3949,7 +3939,7 @@
       <c r="B202" s="11">
         <v>195</v>
       </c>
-      <c r="C202" s="34"/>
+      <c r="C202" s="37"/>
       <c r="D202" s="5" t="s">
         <v>201</v>
       </c>
@@ -3959,7 +3949,7 @@
       <c r="B203" s="11">
         <v>196</v>
       </c>
-      <c r="C203" s="35"/>
+      <c r="C203" s="38"/>
       <c r="D203" s="5" t="s">
         <v>202</v>
       </c>
@@ -3969,7 +3959,7 @@
       <c r="B204" s="11">
         <v>197</v>
       </c>
-      <c r="C204" s="33" t="s">
+      <c r="C204" s="34" t="s">
         <v>229</v>
       </c>
       <c r="D204" s="5" t="s">
@@ -3981,7 +3971,7 @@
       <c r="B205" s="11">
         <v>198</v>
       </c>
-      <c r="C205" s="34"/>
+      <c r="C205" s="37"/>
       <c r="D205" s="5" t="s">
         <v>231</v>
       </c>
@@ -3991,7 +3981,7 @@
       <c r="B206" s="11">
         <v>199</v>
       </c>
-      <c r="C206" s="34"/>
+      <c r="C206" s="37"/>
       <c r="D206" s="5" t="s">
         <v>225</v>
       </c>
@@ -4001,7 +3991,7 @@
       <c r="B207" s="11">
         <v>200</v>
       </c>
-      <c r="C207" s="34"/>
+      <c r="C207" s="37"/>
       <c r="D207" s="5" t="s">
         <v>226</v>
       </c>
@@ -4011,7 +4001,7 @@
       <c r="B208" s="11">
         <v>201</v>
       </c>
-      <c r="C208" s="34"/>
+      <c r="C208" s="37"/>
       <c r="D208" s="5" t="s">
         <v>227</v>
       </c>
@@ -4021,7 +4011,7 @@
       <c r="B209" s="11">
         <v>202</v>
       </c>
-      <c r="C209" s="35"/>
+      <c r="C209" s="38"/>
       <c r="D209" s="5" t="s">
         <v>228</v>
       </c>
@@ -4031,7 +4021,7 @@
       <c r="B210" s="11">
         <v>203</v>
       </c>
-      <c r="C210" s="33" t="s">
+      <c r="C210" s="34" t="s">
         <v>239</v>
       </c>
       <c r="D210" s="5" t="s">
@@ -4043,7 +4033,7 @@
       <c r="B211" s="11">
         <v>204</v>
       </c>
-      <c r="C211" s="37"/>
+      <c r="C211" s="35"/>
       <c r="D211" s="5" t="s">
         <v>232</v>
       </c>
@@ -4053,7 +4043,7 @@
       <c r="B212" s="11">
         <v>205</v>
       </c>
-      <c r="C212" s="37"/>
+      <c r="C212" s="35"/>
       <c r="D212" s="5" t="s">
         <v>233</v>
       </c>
@@ -4063,7 +4053,7 @@
       <c r="B213" s="11">
         <v>206</v>
       </c>
-      <c r="C213" s="37"/>
+      <c r="C213" s="35"/>
       <c r="D213" s="5" t="s">
         <v>234</v>
       </c>
@@ -4073,7 +4063,7 @@
       <c r="B214" s="11">
         <v>207</v>
       </c>
-      <c r="C214" s="37"/>
+      <c r="C214" s="35"/>
       <c r="D214" s="5" t="s">
         <v>235</v>
       </c>
@@ -4083,7 +4073,7 @@
       <c r="B215" s="11">
         <v>208</v>
       </c>
-      <c r="C215" s="37"/>
+      <c r="C215" s="35"/>
       <c r="D215" s="5" t="s">
         <v>236</v>
       </c>
@@ -4093,7 +4083,7 @@
       <c r="B216" s="11">
         <v>209</v>
       </c>
-      <c r="C216" s="37"/>
+      <c r="C216" s="35"/>
       <c r="D216" s="5" t="s">
         <v>237</v>
       </c>
@@ -4103,7 +4093,7 @@
       <c r="B217" s="11">
         <v>210</v>
       </c>
-      <c r="C217" s="38"/>
+      <c r="C217" s="36"/>
       <c r="D217" s="5" t="s">
         <v>238</v>
       </c>
@@ -4113,7 +4103,7 @@
       <c r="B218" s="11">
         <v>211</v>
       </c>
-      <c r="C218" s="33" t="s">
+      <c r="C218" s="34" t="s">
         <v>259</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -4125,7 +4115,7 @@
       <c r="B219" s="11">
         <v>212</v>
       </c>
-      <c r="C219" s="37"/>
+      <c r="C219" s="35"/>
       <c r="D219" s="5" t="s">
         <v>241</v>
       </c>
@@ -4135,7 +4125,7 @@
       <c r="B220" s="11">
         <v>213</v>
       </c>
-      <c r="C220" s="37"/>
+      <c r="C220" s="35"/>
       <c r="D220" s="5" t="s">
         <v>242</v>
       </c>
@@ -4145,7 +4135,7 @@
       <c r="B221" s="11">
         <v>214</v>
       </c>
-      <c r="C221" s="37"/>
+      <c r="C221" s="35"/>
       <c r="D221" s="5" t="s">
         <v>243</v>
       </c>
@@ -4155,7 +4145,7 @@
       <c r="B222" s="11">
         <v>215</v>
       </c>
-      <c r="C222" s="37"/>
+      <c r="C222" s="35"/>
       <c r="D222" s="5" t="s">
         <v>244</v>
       </c>
@@ -4165,7 +4155,7 @@
       <c r="B223" s="11">
         <v>216</v>
       </c>
-      <c r="C223" s="37"/>
+      <c r="C223" s="35"/>
       <c r="D223" s="5" t="s">
         <v>245</v>
       </c>
@@ -4175,7 +4165,7 @@
       <c r="B224" s="11">
         <v>217</v>
       </c>
-      <c r="C224" s="37"/>
+      <c r="C224" s="35"/>
       <c r="D224" s="5" t="s">
         <v>246</v>
       </c>
@@ -4185,7 +4175,7 @@
       <c r="B225" s="11">
         <v>218</v>
       </c>
-      <c r="C225" s="37"/>
+      <c r="C225" s="35"/>
       <c r="D225" s="5" t="s">
         <v>247</v>
       </c>
@@ -4195,7 +4185,7 @@
       <c r="B226" s="11">
         <v>219</v>
       </c>
-      <c r="C226" s="37"/>
+      <c r="C226" s="35"/>
       <c r="D226" s="5" t="s">
         <v>248</v>
       </c>
@@ -4205,7 +4195,7 @@
       <c r="B227" s="11">
         <v>219</v>
       </c>
-      <c r="C227" s="37"/>
+      <c r="C227" s="35"/>
       <c r="D227" s="5" t="s">
         <v>250</v>
       </c>
@@ -4215,7 +4205,7 @@
       <c r="B228" s="11">
         <v>219</v>
       </c>
-      <c r="C228" s="37"/>
+      <c r="C228" s="35"/>
       <c r="D228" s="5" t="s">
         <v>269</v>
       </c>
@@ -4225,7 +4215,7 @@
       <c r="B229" s="11">
         <v>219</v>
       </c>
-      <c r="C229" s="37"/>
+      <c r="C229" s="35"/>
       <c r="D229" s="5" t="s">
         <v>249</v>
       </c>
@@ -4235,7 +4225,7 @@
       <c r="B230" s="11">
         <v>219</v>
       </c>
-      <c r="C230" s="37"/>
+      <c r="C230" s="35"/>
       <c r="D230" s="5" t="s">
         <v>270</v>
       </c>
@@ -4245,7 +4235,7 @@
       <c r="B231" s="11">
         <v>219</v>
       </c>
-      <c r="C231" s="37"/>
+      <c r="C231" s="35"/>
       <c r="D231" s="5" t="s">
         <v>251</v>
       </c>
@@ -4255,7 +4245,7 @@
       <c r="B232" s="11">
         <v>219</v>
       </c>
-      <c r="C232" s="37"/>
+      <c r="C232" s="35"/>
       <c r="D232" s="5" t="s">
         <v>253</v>
       </c>
@@ -4265,7 +4255,7 @@
       <c r="B233" s="11">
         <v>224</v>
       </c>
-      <c r="C233" s="37"/>
+      <c r="C233" s="35"/>
       <c r="D233" s="5" t="s">
         <v>252</v>
       </c>
@@ -4275,7 +4265,7 @@
       <c r="B234" s="11">
         <v>225</v>
       </c>
-      <c r="C234" s="37"/>
+      <c r="C234" s="35"/>
       <c r="D234" s="5" t="s">
         <v>254</v>
       </c>
@@ -4285,7 +4275,7 @@
       <c r="B235" s="11">
         <v>226</v>
       </c>
-      <c r="C235" s="37"/>
+      <c r="C235" s="35"/>
       <c r="D235" s="5" t="s">
         <v>255</v>
       </c>
@@ -4295,7 +4285,7 @@
       <c r="B236" s="11">
         <v>227</v>
       </c>
-      <c r="C236" s="37"/>
+      <c r="C236" s="35"/>
       <c r="D236" s="5" t="s">
         <v>257</v>
       </c>
@@ -4305,7 +4295,7 @@
       <c r="B237" s="11">
         <v>228</v>
       </c>
-      <c r="C237" s="38"/>
+      <c r="C237" s="36"/>
       <c r="D237" s="5" t="s">
         <v>258</v>
       </c>
@@ -4315,7 +4305,7 @@
       <c r="B238" s="11">
         <v>229</v>
       </c>
-      <c r="C238" s="33" t="s">
+      <c r="C238" s="34" t="s">
         <v>268</v>
       </c>
       <c r="D238" s="5" t="s">
@@ -4327,7 +4317,7 @@
       <c r="B239" s="11">
         <v>230</v>
       </c>
-      <c r="C239" s="37"/>
+      <c r="C239" s="35"/>
       <c r="D239" s="5" t="s">
         <v>261</v>
       </c>
@@ -4337,7 +4327,7 @@
       <c r="B240" s="11">
         <v>231</v>
       </c>
-      <c r="C240" s="37"/>
+      <c r="C240" s="35"/>
       <c r="D240" s="5" t="s">
         <v>262</v>
       </c>
@@ -4347,7 +4337,7 @@
       <c r="B241" s="11">
         <v>232</v>
       </c>
-      <c r="C241" s="37"/>
+      <c r="C241" s="35"/>
       <c r="D241" s="5" t="s">
         <v>263</v>
       </c>
@@ -4357,7 +4347,7 @@
       <c r="B242" s="11">
         <v>233</v>
       </c>
-      <c r="C242" s="37"/>
+      <c r="C242" s="35"/>
       <c r="D242" s="5" t="s">
         <v>266</v>
       </c>
@@ -4367,7 +4357,7 @@
       <c r="B243" s="11">
         <v>234</v>
       </c>
-      <c r="C243" s="38"/>
+      <c r="C243" s="36"/>
       <c r="D243" s="5" t="s">
         <v>267</v>
       </c>
@@ -4377,7 +4367,7 @@
       <c r="B244" s="11">
         <v>235</v>
       </c>
-      <c r="C244" s="33" t="s">
+      <c r="C244" s="34" t="s">
         <v>271</v>
       </c>
       <c r="D244" s="5" t="s">
@@ -4389,7 +4379,7 @@
       <c r="B245" s="11">
         <v>236</v>
       </c>
-      <c r="C245" s="34"/>
+      <c r="C245" s="37"/>
       <c r="D245" s="5" t="s">
         <v>273</v>
       </c>
@@ -4399,7 +4389,7 @@
       <c r="B246" s="11">
         <v>237</v>
       </c>
-      <c r="C246" s="34"/>
+      <c r="C246" s="37"/>
       <c r="D246" s="5" t="s">
         <v>274</v>
       </c>
@@ -4409,7 +4399,7 @@
       <c r="B247" s="11">
         <v>238</v>
       </c>
-      <c r="C247" s="34"/>
+      <c r="C247" s="37"/>
       <c r="D247" s="5" t="s">
         <v>275</v>
       </c>
@@ -4419,7 +4409,7 @@
       <c r="B248" s="11">
         <v>239</v>
       </c>
-      <c r="C248" s="34"/>
+      <c r="C248" s="37"/>
       <c r="D248" s="5" t="s">
         <v>276</v>
       </c>
@@ -4429,7 +4419,7 @@
       <c r="B249" s="11">
         <v>240</v>
       </c>
-      <c r="C249" s="34"/>
+      <c r="C249" s="37"/>
       <c r="D249" s="5" t="s">
         <v>277</v>
       </c>
@@ -4439,7 +4429,7 @@
       <c r="B250" s="11">
         <v>241</v>
       </c>
-      <c r="C250" s="34"/>
+      <c r="C250" s="37"/>
       <c r="D250" s="5" t="s">
         <v>278</v>
       </c>
@@ -4449,7 +4439,7 @@
       <c r="B251" s="11">
         <v>242</v>
       </c>
-      <c r="C251" s="34"/>
+      <c r="C251" s="37"/>
       <c r="D251" s="5" t="s">
         <v>289</v>
       </c>
@@ -4459,7 +4449,7 @@
       <c r="B252" s="11">
         <v>243</v>
       </c>
-      <c r="C252" s="34"/>
+      <c r="C252" s="37"/>
       <c r="D252" s="5" t="s">
         <v>290</v>
       </c>
@@ -4469,7 +4459,7 @@
       <c r="B253" s="11">
         <v>244</v>
       </c>
-      <c r="C253" s="34"/>
+      <c r="C253" s="37"/>
       <c r="D253" s="5" t="s">
         <v>281</v>
       </c>
@@ -4479,7 +4469,7 @@
       <c r="B254" s="11">
         <v>245</v>
       </c>
-      <c r="C254" s="34"/>
+      <c r="C254" s="37"/>
       <c r="D254" s="5" t="s">
         <v>282</v>
       </c>
@@ -4489,7 +4479,7 @@
       <c r="B255" s="11">
         <v>246</v>
       </c>
-      <c r="C255" s="34"/>
+      <c r="C255" s="37"/>
       <c r="D255" s="5" t="s">
         <v>288</v>
       </c>
@@ -4499,7 +4489,7 @@
       <c r="B256" s="11">
         <v>247</v>
       </c>
-      <c r="C256" s="34"/>
+      <c r="C256" s="37"/>
       <c r="D256" s="5" t="s">
         <v>291</v>
       </c>
@@ -4509,7 +4499,7 @@
       <c r="B257" s="11">
         <v>248</v>
       </c>
-      <c r="C257" s="34"/>
+      <c r="C257" s="37"/>
       <c r="D257" s="5" t="s">
         <v>295</v>
       </c>
@@ -4519,7 +4509,7 @@
       <c r="B258" s="11">
         <v>249</v>
       </c>
-      <c r="C258" s="34"/>
+      <c r="C258" s="37"/>
       <c r="D258" s="5" t="s">
         <v>292</v>
       </c>
@@ -4529,7 +4519,7 @@
       <c r="B259" s="11">
         <v>250</v>
       </c>
-      <c r="C259" s="34"/>
+      <c r="C259" s="37"/>
       <c r="D259" s="5" t="s">
         <v>297</v>
       </c>
@@ -4539,7 +4529,7 @@
       <c r="B260" s="11">
         <v>251</v>
       </c>
-      <c r="C260" s="34"/>
+      <c r="C260" s="37"/>
       <c r="D260" s="5" t="s">
         <v>293</v>
       </c>
@@ -4549,7 +4539,7 @@
       <c r="B261" s="11">
         <v>252</v>
       </c>
-      <c r="C261" s="34"/>
+      <c r="C261" s="37"/>
       <c r="D261" s="5" t="s">
         <v>294</v>
       </c>
@@ -4559,7 +4549,7 @@
       <c r="B262" s="11">
         <v>253</v>
       </c>
-      <c r="C262" s="34"/>
+      <c r="C262" s="37"/>
       <c r="D262" s="5" t="s">
         <v>284</v>
       </c>
@@ -4569,7 +4559,7 @@
       <c r="B263" s="11">
         <v>254</v>
       </c>
-      <c r="C263" s="34"/>
+      <c r="C263" s="37"/>
       <c r="D263" s="5" t="s">
         <v>283</v>
       </c>
@@ -4579,7 +4569,7 @@
       <c r="B264" s="11">
         <v>255</v>
       </c>
-      <c r="C264" s="34"/>
+      <c r="C264" s="37"/>
       <c r="D264" s="5" t="s">
         <v>298</v>
       </c>
@@ -4589,7 +4579,7 @@
       <c r="B265" s="11">
         <v>256</v>
       </c>
-      <c r="C265" s="34"/>
+      <c r="C265" s="37"/>
       <c r="D265" s="5" t="s">
         <v>299</v>
       </c>
@@ -4599,7 +4589,7 @@
       <c r="B266" s="11">
         <v>257</v>
       </c>
-      <c r="C266" s="34"/>
+      <c r="C266" s="37"/>
       <c r="D266" s="5" t="s">
         <v>296</v>
       </c>
@@ -4609,7 +4599,7 @@
       <c r="B267" s="11">
         <v>258</v>
       </c>
-      <c r="C267" s="34"/>
+      <c r="C267" s="37"/>
       <c r="D267" s="5" t="s">
         <v>285</v>
       </c>
@@ -4619,7 +4609,7 @@
       <c r="B268" s="11">
         <v>259</v>
       </c>
-      <c r="C268" s="34"/>
+      <c r="C268" s="37"/>
       <c r="D268" s="5" t="s">
         <v>286</v>
       </c>
@@ -4629,7 +4619,7 @@
       <c r="B269" s="11">
         <v>260</v>
       </c>
-      <c r="C269" s="34"/>
+      <c r="C269" s="37"/>
       <c r="D269" s="5" t="s">
         <v>300</v>
       </c>
@@ -4639,7 +4629,7 @@
       <c r="B270" s="11">
         <v>261</v>
       </c>
-      <c r="C270" s="34"/>
+      <c r="C270" s="37"/>
       <c r="D270" s="5" t="s">
         <v>301</v>
       </c>
@@ -4649,7 +4639,7 @@
       <c r="B271" s="11">
         <v>262</v>
       </c>
-      <c r="C271" s="34"/>
+      <c r="C271" s="37"/>
       <c r="D271" s="5" t="s">
         <v>302</v>
       </c>
@@ -4659,7 +4649,7 @@
       <c r="B272" s="11">
         <v>263</v>
       </c>
-      <c r="C272" s="34"/>
+      <c r="C272" s="37"/>
       <c r="D272" s="5" t="s">
         <v>287</v>
       </c>
@@ -4669,7 +4659,7 @@
       <c r="B273" s="11">
         <v>264</v>
       </c>
-      <c r="C273" s="34"/>
+      <c r="C273" s="37"/>
       <c r="D273" s="5" t="s">
         <v>303</v>
       </c>
@@ -4679,946 +4669,505 @@
       <c r="B274" s="26">
         <v>265</v>
       </c>
-      <c r="C274" s="34"/>
+      <c r="C274" s="37"/>
       <c r="D274" s="14" t="s">
         <v>304</v>
       </c>
       <c r="E274" s="20"/>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B275" s="45"/>
-      <c r="C275" s="46"/>
-      <c r="D275" s="47"/>
-      <c r="E275" s="46"/>
+      <c r="B275" s="28"/>
+      <c r="C275" s="29"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="29"/>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B276" s="42"/>
-      <c r="C276" s="43"/>
-      <c r="D276" s="44"/>
-      <c r="E276" s="43"/>
+      <c r="B276" s="7"/>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B277" s="42"/>
-      <c r="C277" s="43"/>
-      <c r="D277" s="44"/>
-      <c r="E277" s="43"/>
+      <c r="B277" s="7"/>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B278" s="42"/>
-      <c r="C278" s="43"/>
-      <c r="D278" s="44"/>
-      <c r="E278" s="43"/>
+      <c r="B278" s="7"/>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B279" s="42"/>
-      <c r="C279" s="43"/>
-      <c r="D279" s="44"/>
-      <c r="E279" s="43"/>
+      <c r="B279" s="7"/>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B280" s="42"/>
-      <c r="C280" s="43"/>
-      <c r="D280" s="44"/>
-      <c r="E280" s="43"/>
+      <c r="B280" s="7"/>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B281" s="42"/>
-      <c r="C281" s="43"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="43"/>
+      <c r="B281" s="7"/>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B282" s="42"/>
-      <c r="C282" s="43"/>
-      <c r="D282" s="44"/>
-      <c r="E282" s="43"/>
+      <c r="B282" s="7"/>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B283" s="42"/>
-      <c r="C283" s="43"/>
-      <c r="D283" s="44"/>
-      <c r="E283" s="43"/>
+      <c r="B283" s="7"/>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B284" s="42"/>
-      <c r="C284" s="43"/>
-      <c r="D284" s="44"/>
-      <c r="E284" s="43"/>
+      <c r="B284" s="7"/>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B285" s="42"/>
-      <c r="C285" s="43"/>
-      <c r="D285" s="44"/>
-      <c r="E285" s="43"/>
+      <c r="B285" s="7"/>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B286" s="42"/>
-      <c r="C286" s="43"/>
-      <c r="D286" s="44"/>
-      <c r="E286" s="43"/>
+      <c r="B286" s="7"/>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B287" s="42"/>
-      <c r="C287" s="43"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="43"/>
+      <c r="B287" s="7"/>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B288" s="42"/>
-      <c r="C288" s="43"/>
-      <c r="D288" s="44"/>
-      <c r="E288" s="43"/>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B289" s="42"/>
-      <c r="C289" s="43"/>
-      <c r="D289" s="44"/>
-      <c r="E289" s="43"/>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B290" s="42"/>
-      <c r="C290" s="43"/>
-      <c r="D290" s="44"/>
-      <c r="E290" s="43"/>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B291" s="42"/>
-      <c r="C291" s="43"/>
-      <c r="D291" s="44"/>
-      <c r="E291" s="43"/>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B292" s="42"/>
-      <c r="C292" s="43"/>
-      <c r="D292" s="44"/>
-      <c r="E292" s="43"/>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B293" s="42"/>
-      <c r="C293" s="43"/>
-      <c r="D293" s="44"/>
-      <c r="E293" s="43"/>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B294" s="42"/>
-      <c r="C294" s="43"/>
-      <c r="D294" s="44"/>
-      <c r="E294" s="43"/>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B295" s="42"/>
-      <c r="C295" s="43"/>
-      <c r="D295" s="44"/>
-      <c r="E295" s="43"/>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B296" s="42"/>
-      <c r="C296" s="43"/>
-      <c r="D296" s="44"/>
-      <c r="E296" s="43"/>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B297" s="42"/>
-      <c r="C297" s="43"/>
-      <c r="D297" s="44"/>
-      <c r="E297" s="43"/>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B298" s="42"/>
-      <c r="C298" s="43"/>
-      <c r="D298" s="44"/>
-      <c r="E298" s="43"/>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B299" s="42"/>
-      <c r="C299" s="43"/>
-      <c r="D299" s="44"/>
-      <c r="E299" s="43"/>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B300" s="42"/>
-      <c r="C300" s="43"/>
-      <c r="D300" s="44"/>
-      <c r="E300" s="43"/>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B301" s="42"/>
-      <c r="C301" s="43"/>
-      <c r="D301" s="44"/>
-      <c r="E301" s="43"/>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B302" s="42"/>
-      <c r="C302" s="43"/>
-      <c r="D302" s="44"/>
-      <c r="E302" s="43"/>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B303" s="42"/>
-      <c r="C303" s="43"/>
-      <c r="D303" s="44"/>
-      <c r="E303" s="43"/>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B304" s="42"/>
-      <c r="C304" s="43"/>
-      <c r="D304" s="44"/>
-      <c r="E304" s="43"/>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B305" s="42"/>
-      <c r="C305" s="43"/>
-      <c r="D305" s="44"/>
-      <c r="E305" s="43"/>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B306" s="42"/>
-      <c r="C306" s="43"/>
-      <c r="D306" s="44"/>
-      <c r="E306" s="43"/>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B307" s="42"/>
-      <c r="C307" s="43"/>
-      <c r="D307" s="44"/>
-      <c r="E307" s="43"/>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B308" s="42"/>
-      <c r="C308" s="43"/>
-      <c r="D308" s="44"/>
-      <c r="E308" s="43"/>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B309" s="42"/>
-      <c r="C309" s="43"/>
-      <c r="D309" s="44"/>
-      <c r="E309" s="43"/>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B310" s="42"/>
-      <c r="C310" s="43"/>
-      <c r="D310" s="44"/>
-      <c r="E310" s="43"/>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B311" s="42"/>
-      <c r="C311" s="43"/>
-      <c r="D311" s="44"/>
-      <c r="E311" s="43"/>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B312" s="42"/>
-      <c r="C312" s="43"/>
-      <c r="D312" s="44"/>
-      <c r="E312" s="43"/>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B313" s="42"/>
-      <c r="C313" s="43"/>
-      <c r="D313" s="44"/>
-      <c r="E313" s="43"/>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B314" s="42"/>
-      <c r="C314" s="43"/>
-      <c r="D314" s="44"/>
-      <c r="E314" s="43"/>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B315" s="42"/>
-      <c r="C315" s="43"/>
-      <c r="D315" s="44"/>
-      <c r="E315" s="43"/>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B316" s="42"/>
-      <c r="C316" s="43"/>
-      <c r="D316" s="44"/>
-      <c r="E316" s="43"/>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B317" s="42"/>
-      <c r="C317" s="43"/>
-      <c r="D317" s="44"/>
-      <c r="E317" s="43"/>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B318" s="42"/>
-      <c r="C318" s="43"/>
-      <c r="D318" s="44"/>
-      <c r="E318" s="43"/>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B319" s="42"/>
-      <c r="C319" s="43"/>
-      <c r="D319" s="44"/>
-      <c r="E319" s="43"/>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B320" s="42"/>
-      <c r="C320" s="43"/>
-      <c r="D320" s="44"/>
-      <c r="E320" s="43"/>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B321" s="42"/>
-      <c r="C321" s="43"/>
-      <c r="D321" s="44"/>
-      <c r="E321" s="43"/>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B322" s="42"/>
-      <c r="C322" s="43"/>
-      <c r="D322" s="44"/>
-      <c r="E322" s="43"/>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B323" s="42"/>
-      <c r="C323" s="43"/>
-      <c r="D323" s="44"/>
-      <c r="E323" s="43"/>
-    </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B324" s="42"/>
-      <c r="C324" s="43"/>
-      <c r="D324" s="44"/>
-      <c r="E324" s="43"/>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B325" s="42"/>
-      <c r="C325" s="43"/>
-      <c r="D325" s="44"/>
-      <c r="E325" s="43"/>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B326" s="42"/>
-      <c r="C326" s="43"/>
-      <c r="D326" s="44"/>
-      <c r="E326" s="43"/>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B327" s="42"/>
-      <c r="C327" s="43"/>
-      <c r="D327" s="44"/>
-      <c r="E327" s="43"/>
-    </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B328" s="42"/>
-      <c r="C328" s="43"/>
-      <c r="D328" s="44"/>
-      <c r="E328" s="43"/>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B329" s="42"/>
-      <c r="C329" s="43"/>
-      <c r="D329" s="44"/>
-      <c r="E329" s="43"/>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B330" s="42"/>
-      <c r="C330" s="43"/>
-      <c r="D330" s="44"/>
-      <c r="E330" s="43"/>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B331" s="42"/>
-      <c r="C331" s="43"/>
-      <c r="D331" s="44"/>
-      <c r="E331" s="43"/>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B332" s="42"/>
-      <c r="C332" s="43"/>
-      <c r="D332" s="44"/>
-      <c r="E332" s="43"/>
-    </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B333" s="42"/>
-      <c r="C333" s="43"/>
-      <c r="D333" s="44"/>
-      <c r="E333" s="43"/>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B334" s="42"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="44"/>
-      <c r="E334" s="43"/>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B335" s="42"/>
-      <c r="C335" s="43"/>
-      <c r="D335" s="44"/>
-      <c r="E335" s="43"/>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B336" s="42"/>
-      <c r="C336" s="43"/>
-      <c r="D336" s="44"/>
-      <c r="E336" s="43"/>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B337" s="42"/>
-      <c r="C337" s="43"/>
-      <c r="D337" s="44"/>
-      <c r="E337" s="43"/>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B338" s="42"/>
-      <c r="C338" s="43"/>
-      <c r="D338" s="44"/>
-      <c r="E338" s="43"/>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B339" s="42"/>
-      <c r="C339" s="43"/>
-      <c r="D339" s="44"/>
-      <c r="E339" s="43"/>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B340" s="42"/>
-      <c r="C340" s="43"/>
-      <c r="D340" s="44"/>
-      <c r="E340" s="43"/>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B341" s="42"/>
-      <c r="C341" s="43"/>
-      <c r="D341" s="44"/>
-      <c r="E341" s="43"/>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B342" s="42"/>
-      <c r="C342" s="43"/>
-      <c r="D342" s="44"/>
-      <c r="E342" s="43"/>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B343" s="42"/>
-      <c r="C343" s="43"/>
-      <c r="D343" s="44"/>
-      <c r="E343" s="43"/>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B344" s="42"/>
-      <c r="C344" s="43"/>
-      <c r="D344" s="44"/>
-      <c r="E344" s="43"/>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B345" s="42"/>
-      <c r="C345" s="43"/>
-      <c r="D345" s="44"/>
-      <c r="E345" s="43"/>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B346" s="42"/>
-      <c r="C346" s="43"/>
-      <c r="D346" s="44"/>
-      <c r="E346" s="43"/>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B347" s="42"/>
-      <c r="C347" s="43"/>
-      <c r="D347" s="44"/>
-      <c r="E347" s="43"/>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B348" s="42"/>
-      <c r="C348" s="43"/>
-      <c r="D348" s="44"/>
-      <c r="E348" s="43"/>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B349" s="42"/>
-      <c r="C349" s="43"/>
-      <c r="D349" s="44"/>
-      <c r="E349" s="43"/>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B350" s="42"/>
-      <c r="C350" s="43"/>
-      <c r="D350" s="44"/>
-      <c r="E350" s="43"/>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B351" s="42"/>
-      <c r="C351" s="43"/>
-      <c r="D351" s="44"/>
-      <c r="E351" s="43"/>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B352" s="42"/>
-      <c r="C352" s="43"/>
-      <c r="D352" s="44"/>
-      <c r="E352" s="43"/>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B353" s="42"/>
-      <c r="C353" s="43"/>
-      <c r="D353" s="44"/>
-      <c r="E353" s="43"/>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B354" s="42"/>
-      <c r="C354" s="43"/>
-      <c r="D354" s="44"/>
-      <c r="E354" s="43"/>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B355" s="42"/>
-      <c r="C355" s="43"/>
-      <c r="D355" s="44"/>
-      <c r="E355" s="43"/>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B356" s="42"/>
-      <c r="C356" s="43"/>
-      <c r="D356" s="44"/>
-      <c r="E356" s="43"/>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B357" s="42"/>
-      <c r="C357" s="43"/>
-      <c r="D357" s="44"/>
-      <c r="E357" s="43"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B358" s="42"/>
-      <c r="C358" s="43"/>
-      <c r="D358" s="44"/>
-      <c r="E358" s="43"/>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B359" s="42"/>
-      <c r="C359" s="43"/>
-      <c r="D359" s="44"/>
-      <c r="E359" s="43"/>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B360" s="42"/>
-      <c r="C360" s="43"/>
-      <c r="D360" s="44"/>
-      <c r="E360" s="43"/>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B361" s="42"/>
-      <c r="C361" s="43"/>
-      <c r="D361" s="44"/>
-      <c r="E361" s="43"/>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B362" s="42"/>
-      <c r="C362" s="43"/>
-      <c r="D362" s="44"/>
-      <c r="E362" s="43"/>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B363" s="42"/>
-      <c r="C363" s="43"/>
-      <c r="D363" s="44"/>
-      <c r="E363" s="43"/>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B364" s="42"/>
-      <c r="C364" s="43"/>
-      <c r="D364" s="44"/>
-      <c r="E364" s="43"/>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B365" s="42"/>
-      <c r="C365" s="43"/>
-      <c r="D365" s="44"/>
-      <c r="E365" s="43"/>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B366" s="42"/>
-      <c r="C366" s="43"/>
-      <c r="D366" s="44"/>
-      <c r="E366" s="43"/>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B367" s="42"/>
-      <c r="C367" s="43"/>
-      <c r="D367" s="44"/>
-      <c r="E367" s="43"/>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B368" s="42"/>
-      <c r="C368" s="43"/>
-      <c r="D368" s="44"/>
-      <c r="E368" s="43"/>
-    </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B369" s="42"/>
-      <c r="C369" s="43"/>
-      <c r="D369" s="44"/>
-      <c r="E369" s="43"/>
-    </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B370" s="42"/>
-      <c r="C370" s="43"/>
-      <c r="D370" s="44"/>
-      <c r="E370" s="43"/>
-    </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B371" s="42"/>
-      <c r="C371" s="43"/>
-      <c r="D371" s="44"/>
-      <c r="E371" s="43"/>
-    </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B372" s="42"/>
-      <c r="C372" s="43"/>
-      <c r="D372" s="44"/>
-      <c r="E372" s="43"/>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B373" s="42"/>
-      <c r="C373" s="43"/>
-      <c r="D373" s="44"/>
-      <c r="E373" s="43"/>
-    </row>
-    <row r="374" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B374" s="42"/>
-      <c r="C374" s="43"/>
-      <c r="D374" s="44"/>
-      <c r="E374" s="43"/>
-    </row>
-    <row r="375" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B375" s="42"/>
-      <c r="C375" s="43"/>
-      <c r="D375" s="44"/>
-      <c r="E375" s="43"/>
-    </row>
-    <row r="376" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B376" s="42"/>
-      <c r="C376" s="43"/>
-      <c r="D376" s="44"/>
-      <c r="E376" s="43"/>
-    </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B377" s="42"/>
-      <c r="C377" s="43"/>
-      <c r="D377" s="44"/>
-      <c r="E377" s="43"/>
-    </row>
-    <row r="378" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B378" s="42"/>
-      <c r="C378" s="43"/>
-      <c r="D378" s="44"/>
-      <c r="E378" s="43"/>
-    </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B379" s="42"/>
-      <c r="C379" s="43"/>
-      <c r="D379" s="44"/>
-      <c r="E379" s="43"/>
-    </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B380" s="42"/>
-      <c r="C380" s="43"/>
-      <c r="D380" s="44"/>
-      <c r="E380" s="43"/>
-    </row>
-    <row r="381" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B381" s="42"/>
-      <c r="C381" s="43"/>
-      <c r="D381" s="44"/>
-      <c r="E381" s="43"/>
-    </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B382" s="42"/>
-      <c r="C382" s="43"/>
-      <c r="D382" s="44"/>
-      <c r="E382" s="43"/>
-    </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B383" s="42"/>
-      <c r="C383" s="43"/>
-      <c r="D383" s="44"/>
-      <c r="E383" s="43"/>
-    </row>
-    <row r="384" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B384" s="42"/>
-      <c r="C384" s="43"/>
-      <c r="D384" s="44"/>
-      <c r="E384" s="43"/>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B385" s="42"/>
-      <c r="C385" s="43"/>
-      <c r="D385" s="44"/>
-      <c r="E385" s="43"/>
-    </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B386" s="42"/>
-      <c r="C386" s="43"/>
-      <c r="D386" s="44"/>
-      <c r="E386" s="43"/>
-    </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B387" s="42"/>
-      <c r="C387" s="43"/>
-      <c r="D387" s="44"/>
-      <c r="E387" s="43"/>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B388" s="42"/>
-      <c r="C388" s="43"/>
-      <c r="D388" s="44"/>
-      <c r="E388" s="43"/>
-    </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B389" s="42"/>
-      <c r="C389" s="43"/>
-      <c r="D389" s="44"/>
-      <c r="E389" s="43"/>
-    </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B390" s="42"/>
-      <c r="C390" s="43"/>
-      <c r="D390" s="44"/>
-      <c r="E390" s="43"/>
-    </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B391" s="42"/>
-      <c r="C391" s="43"/>
-      <c r="D391" s="44"/>
-      <c r="E391" s="43"/>
-    </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B392" s="42"/>
-      <c r="C392" s="43"/>
-      <c r="D392" s="44"/>
-      <c r="E392" s="43"/>
-    </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B393" s="42"/>
-      <c r="C393" s="43"/>
-      <c r="D393" s="44"/>
-      <c r="E393" s="43"/>
-    </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B394" s="42"/>
-      <c r="C394" s="43"/>
-      <c r="D394" s="44"/>
-      <c r="E394" s="43"/>
-    </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B395" s="42"/>
-      <c r="C395" s="43"/>
-      <c r="D395" s="44"/>
-      <c r="E395" s="43"/>
-    </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B396" s="42"/>
-      <c r="C396" s="43"/>
-      <c r="D396" s="44"/>
-      <c r="E396" s="43"/>
-    </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B397" s="42"/>
-      <c r="C397" s="43"/>
-      <c r="D397" s="44"/>
-      <c r="E397" s="43"/>
-    </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B398" s="42"/>
-      <c r="C398" s="43"/>
-      <c r="D398" s="44"/>
-      <c r="E398" s="43"/>
-    </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B399" s="42"/>
-      <c r="C399" s="43"/>
-      <c r="D399" s="44"/>
-      <c r="E399" s="43"/>
-    </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B400" s="42"/>
-      <c r="C400" s="43"/>
-      <c r="D400" s="44"/>
-      <c r="E400" s="43"/>
-    </row>
-    <row r="401" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B401" s="42"/>
-      <c r="C401" s="43"/>
-      <c r="D401" s="44"/>
-      <c r="E401" s="43"/>
-    </row>
-    <row r="402" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B402" s="42"/>
-      <c r="C402" s="43"/>
-      <c r="D402" s="44"/>
-      <c r="E402" s="43"/>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B403" s="42"/>
-      <c r="C403" s="43"/>
-      <c r="D403" s="44"/>
-      <c r="E403" s="43"/>
-    </row>
-    <row r="404" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B404" s="42"/>
-      <c r="C404" s="43"/>
-      <c r="D404" s="44"/>
-      <c r="E404" s="43"/>
-    </row>
-    <row r="405" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B405" s="42"/>
-      <c r="C405" s="43"/>
-      <c r="D405" s="44"/>
-      <c r="E405" s="43"/>
-    </row>
-    <row r="406" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B406" s="42"/>
-      <c r="C406" s="43"/>
-      <c r="D406" s="44"/>
-      <c r="E406" s="43"/>
-    </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B407" s="42"/>
-      <c r="C407" s="43"/>
-      <c r="D407" s="44"/>
-      <c r="E407" s="43"/>
-    </row>
-    <row r="408" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B408" s="42"/>
-      <c r="C408" s="43"/>
-      <c r="D408" s="44"/>
-      <c r="E408" s="43"/>
-    </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B409" s="42"/>
-      <c r="C409" s="43"/>
-      <c r="D409" s="44"/>
-      <c r="E409" s="43"/>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B410" s="42"/>
-      <c r="C410" s="43"/>
-      <c r="D410" s="44"/>
-      <c r="E410" s="43"/>
-    </row>
-    <row r="411" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B411" s="42"/>
-      <c r="C411" s="43"/>
-      <c r="D411" s="44"/>
-      <c r="E411" s="43"/>
-    </row>
-    <row r="412" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B412" s="42"/>
-      <c r="C412" s="43"/>
-      <c r="D412" s="44"/>
-      <c r="E412" s="43"/>
-    </row>
-    <row r="413" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B413" s="42"/>
-      <c r="C413" s="43"/>
-      <c r="D413" s="44"/>
-      <c r="E413" s="43"/>
-    </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B414" s="42"/>
-      <c r="C414" s="43"/>
-      <c r="D414" s="44"/>
-      <c r="E414" s="43"/>
-    </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B415" s="42"/>
-      <c r="C415" s="43"/>
-      <c r="D415" s="44"/>
-      <c r="E415" s="43"/>
-    </row>
-    <row r="416" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B416" s="42"/>
-      <c r="C416" s="43"/>
-      <c r="D416" s="44"/>
-      <c r="E416" s="43"/>
-    </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B417" s="42"/>
-      <c r="C417" s="43"/>
-      <c r="D417" s="44"/>
-      <c r="E417" s="43"/>
-    </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B418" s="42"/>
-      <c r="C418" s="43"/>
-      <c r="D418" s="44"/>
-      <c r="E418" s="43"/>
-    </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B419" s="42"/>
-      <c r="C419" s="43"/>
-      <c r="D419" s="44"/>
-      <c r="E419" s="43"/>
-    </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B420" s="42"/>
-      <c r="C420" s="43"/>
-      <c r="D420" s="44"/>
-      <c r="E420" s="43"/>
-    </row>
-    <row r="421" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B421" s="42"/>
-      <c r="C421" s="43"/>
-      <c r="D421" s="44"/>
-      <c r="E421" s="43"/>
-    </row>
-    <row r="422" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B422" s="42"/>
-      <c r="C422" s="43"/>
-      <c r="D422" s="44"/>
-      <c r="E422" s="43"/>
-    </row>
-    <row r="423" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B288" s="7"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B289" s="7"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B290" s="7"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B291" s="7"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B292" s="7"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B293" s="7"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B294" s="7"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B295" s="7"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B296" s="7"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B297" s="7"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B298" s="7"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B299" s="7"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B300" s="7"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B301" s="7"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B302" s="7"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B303" s="7"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B304" s="7"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B305" s="7"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B306" s="7"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B307" s="7"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B308" s="7"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B309" s="7"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B310" s="7"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B311" s="7"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B312" s="7"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B313" s="7"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B314" s="7"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B315" s="7"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B316" s="7"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B317" s="7"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B318" s="7"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B319" s="7"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B320" s="7"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B321" s="7"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B322" s="7"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B323" s="7"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B324" s="7"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B325" s="7"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B326" s="7"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B327" s="7"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B328" s="7"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B329" s="7"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B330" s="7"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B331" s="7"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B332" s="7"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B333" s="7"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B334" s="7"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B335" s="7"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B336" s="7"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B337" s="7"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B338" s="7"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B339" s="7"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B340" s="7"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B341" s="7"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B342" s="7"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B343" s="7"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B344" s="7"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B345" s="7"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B346" s="7"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B347" s="7"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B348" s="7"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B349" s="7"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B350" s="7"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B351" s="7"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B352" s="7"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B353" s="7"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B354" s="7"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B355" s="7"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B356" s="7"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B357" s="7"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B358" s="7"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B359" s="7"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B360" s="7"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B361" s="7"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B362" s="7"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B363" s="7"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B364" s="7"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B365" s="7"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B366" s="7"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B367" s="7"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B368" s="7"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B369" s="7"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B370" s="7"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B371" s="7"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B372" s="7"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B373" s="7"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B374" s="7"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B375" s="7"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B376" s="7"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B377" s="7"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B378" s="7"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B379" s="7"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B380" s="7"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B381" s="7"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B382" s="7"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B383" s="7"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B384" s="7"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B385" s="7"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B386" s="7"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B387" s="7"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B388" s="7"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B389" s="7"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B390" s="7"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B391" s="7"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B392" s="7"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B393" s="7"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B394" s="7"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B395" s="7"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B396" s="7"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B397" s="7"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B398" s="7"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B399" s="7"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B400" s="7"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B401" s="7"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B402" s="7"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B403" s="7"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B404" s="7"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B405" s="7"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B406" s="7"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B407" s="7"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B408" s="7"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B409" s="7"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B410" s="7"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B411" s="7"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B412" s="7"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B413" s="7"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B414" s="7"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B415" s="7"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B416" s="7"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B417" s="7"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B418" s="7"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B419" s="7"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B420" s="7"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B421" s="7"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B422" s="7"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B423" s="27">
         <v>400</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B424" s="11">
         <v>401</v>
       </c>
     </row>
-    <row r="425" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B425" s="11">
         <v>402</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B426" s="11">
         <v>403</v>
       </c>
     </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B427" s="11">
         <v>404</v>
       </c>
     </row>
-    <row r="428" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B428" s="11">
         <v>405</v>
       </c>
     </row>
-    <row r="429" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B429" s="11">
         <v>406</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B430" s="11">
         <v>407</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B431" s="11">
         <v>408</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B432" s="11">
         <v>409</v>
       </c>
@@ -6170,6 +5719,27 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C8:C21"/>
+    <mergeCell ref="C70:C90"/>
+    <mergeCell ref="C43:C69"/>
+    <mergeCell ref="C22:C42"/>
+    <mergeCell ref="C91:C107"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C123:C127"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="C162:C165"/>
     <mergeCell ref="C172:C177"/>
     <mergeCell ref="C218:C237"/>
     <mergeCell ref="C139:C147"/>
@@ -6181,27 +5751,6 @@
     <mergeCell ref="C178:C183"/>
     <mergeCell ref="C184:C189"/>
     <mergeCell ref="C190:C196"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C123:C127"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C8:C21"/>
-    <mergeCell ref="C70:C90"/>
-    <mergeCell ref="C43:C69"/>
-    <mergeCell ref="C22:C42"/>
-    <mergeCell ref="C91:C107"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
